--- a/data/trans_orig/Q02G_LAB-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q02G_LAB-Edad-trans_orig.xlsx
@@ -634,19 +634,19 @@
         <v>2</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.351422293659708</v>
+        <v>1.322604598821818</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.853186358714022</v>
+        <v>1.826676662859477</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.799766387445592</v>
+        <v>2.809546741385696</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.938575366738329</v>
+        <v>2.010247922964338</v>
       </c>
     </row>
     <row r="6">
@@ -660,19 +660,19 @@
         <v>6.609424354166222</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.355049991971662</v>
+        <v>4.235257161034656</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>7</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.304209864255231</v>
+        <v>8.400914791789251</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.59366644083614</v>
+        <v>6.685575585681095</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.768676179687131</v>
+        <v>5.943767024589573</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.0975873169927</v>
+        <v>3.192563335426201</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.703758867617841</v>
+        <v>1.714655499253633</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.079442747947864</v>
+        <v>2.117104256016868</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.708938248778437</v>
+        <v>1.85568452041843</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.005764340991194</v>
+        <v>2.94710381244964</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>1.978018781617551</v>
+        <v>2.072633979567054</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.598496466471231</v>
+        <v>6.484959251930925</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.545329300917293</v>
+        <v>4.548942634967529</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.087253300468454</v>
+        <v>4.304827170760331</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.84598869361435</v>
+        <v>4.984118691311186</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>5.23155706220212</v>
+        <v>5.404396857603215</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>4.275330590920686</v>
+        <v>4.337391142956766</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.246000366572387</v>
+        <v>1.247499771002166</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7427462411770198</v>
+        <v>0.7226230082055877</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.437267074655657</v>
+        <v>2.445763485008276</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.676254847749725</v>
+        <v>2.700277270509942</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.330658976398463</v>
+        <v>2.375879374100914</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.362953773902301</v>
+        <v>2.335059316709432</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.365350741531784</v>
+        <v>4.40182044216994</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.62094224233248</v>
+        <v>2.790300506032938</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.171293943418719</v>
+        <v>4.233468572576228</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.907213175181576</v>
+        <v>5.075462048418476</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.954265975218301</v>
+        <v>4.101184372332467</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.411157300939675</v>
+        <v>4.312674978072197</v>
       </c>
     </row>
     <row r="13">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.447952998063909</v>
+        <v>3.461058448141709</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.168386348775513</v>
+        <v>3.079777337923336</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.763782699026625</v>
+        <v>3.830447629315744</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.1267595981933</v>
+        <v>3.03414688959606</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.812736357539879</v>
+        <v>3.891044994143853</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.320792049112297</v>
+        <v>3.383444444730733</v>
       </c>
     </row>
     <row r="15">
@@ -903,22 +903,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.217095799122447</v>
+        <v>7.584429838691753</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.468106572915577</v>
+        <v>6.850496559184342</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.805115654304212</v>
+        <v>5.95000601768697</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.417019033269463</v>
+        <v>5.289174435578937</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>5.695440102189124</v>
+        <v>5.677693457122942</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>5.325340509897284</v>
+        <v>5.459736712903244</v>
       </c>
     </row>
     <row r="16">
@@ -960,19 +960,19 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>2.318288662443852</v>
+        <v>2.416232487850475</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.883194037322656</v>
+        <v>3.099128298458588</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.368186296481677</v>
+        <v>3.420161501089615</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>2.749400366974927</v>
+        <v>2.747046170539949</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.310809537613349</v>
+        <v>3.348187995540826</v>
       </c>
     </row>
     <row r="18">
@@ -984,19 +984,19 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>8.863005921476704</v>
+        <v>9.656868100569058</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.167668953885539</v>
+        <v>6.305574691130255</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.062775633591626</v>
+        <v>7.153840432456829</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.207257081599556</v>
+        <v>5.323540723516521</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.29083818798748</v>
+        <v>6.580918607903627</v>
       </c>
     </row>
     <row r="19">
@@ -1037,22 +1037,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2</v>
+        <v>2.108566336672605</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.651118108231282</v>
+        <v>1.643455139405265</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.738842400850041</v>
+        <v>2.695340478853764</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3.77418999496992</v>
+        <v>3.752452859949548</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>2.762736015345353</v>
+        <v>2.740060243279796</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>3.397366892826418</v>
+        <v>3.355284484672936</v>
       </c>
     </row>
     <row r="21">
@@ -1063,22 +1063,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>7.600526786711288</v>
+        <v>7.671072534436735</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>5.562388968292731</v>
+        <v>6.136480663483704</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4.949606064902656</v>
+        <v>4.859521328126278</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8.317867682341127</v>
+        <v>8.33637756280053</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>5.570707170173685</v>
+        <v>5.446050256175881</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>6.943055989755703</v>
+        <v>6.915162291530535</v>
       </c>
     </row>
     <row r="22">
@@ -1132,7 +1132,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.118240994918693</v>
+        <v>2.144648175795527</v>
       </c>
     </row>
     <row r="24">
@@ -1150,13 +1150,13 @@
         <v>7</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.875744087264767</v>
+        <v>3</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7</v>
+        <v>6.366786288243641</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.338264979680883</v>
+        <v>3.360043200507262</v>
       </c>
     </row>
     <row r="25">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>3.011062361102521</v>
+        <v>2.994944339189508</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.750538716057882</v>
+        <v>2.785341727256273</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3.51945519972507</v>
+        <v>3.456004052537568</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3.491628401698753</v>
+        <v>3.448042303809486</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>3.502046465612807</v>
+        <v>3.494174684769595</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>3.477089444420072</v>
+        <v>3.397440090691974</v>
       </c>
     </row>
     <row r="27">
@@ -1223,22 +1223,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.745349766592464</v>
+        <v>4.725761270661322</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>4.888284572871938</v>
+        <v>4.93509240934154</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4.600665048500767</v>
+        <v>4.589877368671024</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>4.84941893548565</v>
+        <v>4.772696855173283</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>4.45654399168921</v>
+        <v>4.452934122182998</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>4.55340192554698</v>
+        <v>4.520101855823212</v>
       </c>
     </row>
     <row r="28">
